--- a/reports/tables/tab3_phase_3a_descriptive.xlsx
+++ b/reports/tables/tab3_phase_3a_descriptive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/results/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/reports/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E418B09A-3E7E-D74A-97D7-C651EBF339A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA77E8-0A70-444D-91EC-7FF9C2DAD51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Currency</t>
   </si>
@@ -41,18 +41,6 @@
     <t>Floating Leg</t>
   </si>
   <si>
-    <t>Cleared Count</t>
-  </si>
-  <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>Uncleared Count</t>
-  </si>
-  <si>
-    <t>Uncleared</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -105,6 +93,18 @@
   </si>
   <si>
     <t>Percent Cleared</t>
+  </si>
+  <si>
+    <t>Cleared (Count)</t>
+  </si>
+  <si>
+    <t>Cleared (Notional Value)</t>
+  </si>
+  <si>
+    <t>Uncleared (Count)</t>
+  </si>
+  <si>
+    <t>Uncleared (Notional Value)</t>
   </si>
 </sst>
 </file>
@@ -127,15 +127,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,52 +156,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,398 +511,373 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>7481</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>485507.61</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>1461</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>58912.197999999997</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <f>D2/(D2+F2)</f>
         <v>0.89178902542796534</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3606</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3/(D3+F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>850</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G16" si="0">D4/(D4+F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>52.75</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>210</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14099</v>
+      </c>
+      <c r="E14" s="6">
+        <v>354</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15561.41</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47534744125249784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
-        <v>850</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G16" si="0">D3/(D3+F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3606</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4">
-        <v>64</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>52.75</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>210</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14099</v>
-      </c>
-      <c r="E14" s="4">
-        <v>354</v>
-      </c>
-      <c r="F14" s="4">
-        <v>15561.41</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.47534744125249784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>106</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
